--- a/data/cluster_annotations/marker_proteins_TNK_supp.xlsx
+++ b/data/cluster_annotations/marker_proteins_TNK_supp.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maksimovicjovana/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1846E829-36A5-2D4E-9720-CE2B51168962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6982D96-F6A0-174A-A773-13674C263615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2820" windowWidth="26440" windowHeight="15440" xr2:uid="{B0D60CE7-E3D7-B945-8175-9F269082F9FC}"/>
+    <workbookView xWindow="3260" yWindow="2720" windowWidth="27240" windowHeight="16440" xr2:uid="{402CD6D7-E60A-2149-9720-CDC36E5EF952}"/>
   </bookViews>
   <sheets>
     <sheet name="TNK" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TNK!$A$1:$A$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TNK!$A$1:$A$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,103 +39,586 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="191">
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>DNA_ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Clone</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>Ensembl ID</t>
+  </si>
+  <si>
+    <t>Gene Name</t>
+  </si>
+  <si>
+    <t>CD103</t>
+  </si>
+  <si>
+    <t>A0145</t>
+  </si>
+  <si>
+    <t>Hu CD103 (Integrin αE)</t>
+  </si>
+  <si>
+    <t>Ber-ACT8</t>
+  </si>
+  <si>
+    <t>GACCTCATTGTGAAT</t>
+  </si>
+  <si>
+    <t>ENSG00000083457</t>
+  </si>
+  <si>
+    <t>ITGAE</t>
+  </si>
+  <si>
+    <t>CD127</t>
+  </si>
+  <si>
+    <t>A0390</t>
+  </si>
+  <si>
+    <t>anti-human CD127 (IL-7Rα)</t>
+  </si>
+  <si>
+    <t>A019D5</t>
+  </si>
+  <si>
+    <t>GTGTGTTGTCCTATG</t>
+  </si>
+  <si>
+    <t>ENSG00000168685</t>
+  </si>
+  <si>
+    <t>IL7R</t>
+  </si>
+  <si>
+    <t>CD161</t>
+  </si>
+  <si>
+    <t>A0149</t>
+  </si>
+  <si>
+    <t>anti-human CD161</t>
+  </si>
+  <si>
+    <t>HP-3G10</t>
+  </si>
+  <si>
+    <t>GTACGCAGTCCTTCT</t>
+  </si>
+  <si>
+    <t>ENSG00000111796</t>
+  </si>
+  <si>
+    <t>KLRB1</t>
+  </si>
+  <si>
+    <t>CD172a</t>
+  </si>
+  <si>
+    <t>A0408</t>
+  </si>
+  <si>
+    <t>anti-human CD172a (SIRPα)</t>
+  </si>
+  <si>
+    <t>15-414</t>
+  </si>
+  <si>
+    <t>CGTGTTTAACTTGAG</t>
+  </si>
+  <si>
+    <t>ENSG00000198053</t>
+  </si>
+  <si>
+    <t>SIRPA</t>
+  </si>
+  <si>
+    <t>CD195</t>
+  </si>
+  <si>
+    <t>A0141</t>
+  </si>
+  <si>
+    <t>anti-human CD195 (CCR5)</t>
+  </si>
+  <si>
+    <t>J418F1</t>
+  </si>
+  <si>
+    <t>CCAAAGTAAGAGCCA</t>
+  </si>
+  <si>
+    <t>ENSG00000160791</t>
+  </si>
+  <si>
+    <t>CCR5</t>
+  </si>
+  <si>
+    <t>CD25</t>
+  </si>
+  <si>
+    <t>A0085</t>
+  </si>
+  <si>
+    <t>anti-human CD25</t>
+  </si>
+  <si>
+    <t>BC96</t>
+  </si>
+  <si>
+    <t>TTTGTCCTGTACGCC</t>
+  </si>
+  <si>
+    <t>ENSG00000134460</t>
+  </si>
+  <si>
+    <t>IL2RA</t>
+  </si>
+  <si>
+    <t>CD26</t>
+  </si>
+  <si>
+    <t>A0396</t>
+  </si>
+  <si>
+    <t>anti-human CD26</t>
+  </si>
+  <si>
+    <t>BA5b</t>
+  </si>
+  <si>
+    <t>GGTGGCTAGATAATG</t>
+  </si>
+  <si>
+    <t>ENSG00000197635</t>
+  </si>
+  <si>
+    <t>DPP4</t>
+  </si>
+  <si>
+    <t>CD27</t>
+  </si>
+  <si>
+    <t>A0154</t>
+  </si>
+  <si>
+    <t>anti-human CD27</t>
+  </si>
+  <si>
+    <t>O323</t>
+  </si>
+  <si>
+    <t>GCACTCCTGCATGTA</t>
+  </si>
+  <si>
+    <t>ENSG00000139193</t>
+  </si>
+  <si>
+    <t>CD278</t>
+  </si>
+  <si>
+    <t>A0171</t>
+  </si>
+  <si>
+    <t>anti-human/mouse/rat CD278 (ICOS)</t>
+  </si>
+  <si>
+    <t>C398.4A</t>
+  </si>
+  <si>
+    <t>CGCGCACCCATTAAA</t>
+  </si>
+  <si>
+    <t>ENSG00000163600</t>
+  </si>
+  <si>
+    <t>ICOS</t>
+  </si>
+  <si>
+    <t>CD335</t>
+  </si>
+  <si>
+    <t>A0101</t>
+  </si>
+  <si>
+    <t>anti-human CD335 (NKp46)</t>
+  </si>
+  <si>
+    <t>9E2</t>
+  </si>
+  <si>
+    <t>ACAATTTGAACAGCG</t>
+  </si>
+  <si>
+    <t>ENSG00000189430</t>
+  </si>
+  <si>
+    <t>NCR1</t>
+  </si>
+  <si>
+    <t>CD4</t>
+  </si>
+  <si>
+    <t>A0072</t>
+  </si>
+  <si>
+    <t>anti-human CD4</t>
+  </si>
+  <si>
+    <t>RPA-T4</t>
+  </si>
+  <si>
+    <t>TGTTCCCGCTCAACT</t>
+  </si>
+  <si>
+    <t>ENSG00000010610</t>
+  </si>
+  <si>
+    <t>CD45RA</t>
+  </si>
+  <si>
+    <t>A0063</t>
+  </si>
+  <si>
+    <t>anti-human CD45RA</t>
+  </si>
+  <si>
+    <t>HI100</t>
+  </si>
+  <si>
+    <t>TCAATCCTTCCGCTT</t>
+  </si>
+  <si>
+    <t>ENSG00000081237</t>
+  </si>
+  <si>
+    <t>PTPRC</t>
+  </si>
+  <si>
+    <t>CD45RO</t>
+  </si>
+  <si>
+    <t>A0087</t>
+  </si>
+  <si>
+    <t>anti-human CD45RO</t>
+  </si>
+  <si>
+    <t>UCHL1</t>
+  </si>
+  <si>
+    <t>CTCCGAATCATGTTG</t>
+  </si>
+  <si>
+    <t>CD48</t>
+  </si>
+  <si>
+    <t>A0029</t>
+  </si>
+  <si>
+    <t>anti-human CD48</t>
+  </si>
+  <si>
+    <t>BJ40</t>
+  </si>
+  <si>
+    <t>CTACGACGTAGAAGA</t>
+  </si>
+  <si>
+    <t>ENSG00000117091</t>
+  </si>
+  <si>
+    <t>CD49a</t>
+  </si>
+  <si>
+    <t>A0575</t>
+  </si>
+  <si>
+    <t>anti-human CD49a</t>
+  </si>
+  <si>
+    <t>TS2/7</t>
+  </si>
+  <si>
+    <t>ACTGATGGACTCAGA</t>
+  </si>
+  <si>
+    <t>ENSG00000213949</t>
+  </si>
+  <si>
+    <t>ITGA1</t>
+  </si>
+  <si>
+    <t>CD49f</t>
+  </si>
+  <si>
+    <t>A0070</t>
+  </si>
+  <si>
+    <t>anti-human/mouse CD49f</t>
+  </si>
+  <si>
+    <t>GoH3</t>
+  </si>
+  <si>
+    <t>TTCCGAGGATGATCT</t>
+  </si>
+  <si>
+    <t>ENSG00000091409</t>
+  </si>
+  <si>
+    <t>ITGA6</t>
+  </si>
+  <si>
+    <t>CD5</t>
+  </si>
+  <si>
+    <t>A0138</t>
+  </si>
+  <si>
+    <t>anti-human CD5</t>
+  </si>
+  <si>
+    <t>UCHT2</t>
+  </si>
+  <si>
+    <t>CATTAACGGGATGCC</t>
+  </si>
+  <si>
+    <t>ENSG00000110448</t>
+  </si>
+  <si>
+    <t>CD56</t>
+  </si>
+  <si>
+    <t>A0047</t>
+  </si>
+  <si>
+    <t>anti-human CD56 (NCAM)</t>
+  </si>
+  <si>
+    <t>5.1H11</t>
+  </si>
+  <si>
+    <t>TCCTTTCCTGATAGG</t>
+  </si>
+  <si>
+    <t>ENSG00000149294</t>
+  </si>
+  <si>
+    <t>NCAM1</t>
+  </si>
+  <si>
+    <t>CD62L</t>
+  </si>
+  <si>
+    <t>A0147</t>
+  </si>
+  <si>
+    <t>anti-human CD62L</t>
+  </si>
+  <si>
+    <t>DREG-56</t>
+  </si>
+  <si>
+    <t>GTCCCTGCAACTTGA</t>
+  </si>
+  <si>
+    <t>ENSG00000188404</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>CD7</t>
+  </si>
+  <si>
+    <t>A0066</t>
+  </si>
+  <si>
+    <t>anti-human CD7</t>
+  </si>
+  <si>
+    <t>CD7-6B7</t>
+  </si>
+  <si>
+    <t>TGGATTCCCGGACTT</t>
+  </si>
+  <si>
+    <t>ENSG00000173762</t>
+  </si>
+  <si>
+    <t>CD71</t>
+  </si>
+  <si>
+    <t>A0394</t>
+  </si>
+  <si>
+    <t>anti-human CD71</t>
+  </si>
+  <si>
+    <t>CY1G4</t>
+  </si>
+  <si>
+    <t>CCGTGTTCCTCATTA</t>
+  </si>
+  <si>
+    <t>ENSG00000072274</t>
+  </si>
+  <si>
+    <t>TFRC</t>
+  </si>
+  <si>
+    <t>CD8</t>
+  </si>
+  <si>
+    <t>A0046</t>
+  </si>
+  <si>
+    <t>anti-human CD8</t>
+  </si>
+  <si>
+    <t>SK1</t>
+  </si>
+  <si>
+    <t>GCGCAACTTGATGAT</t>
+  </si>
+  <si>
+    <t>ENSG00000153563</t>
+  </si>
+  <si>
+    <t>CD8A</t>
+  </si>
+  <si>
+    <t>CD9</t>
+  </si>
+  <si>
+    <t>A0579</t>
+  </si>
+  <si>
+    <t>anti-human CD9</t>
+  </si>
+  <si>
+    <t>HI9a</t>
+  </si>
+  <si>
+    <t>GAGTCACCAATCTGC</t>
+  </si>
+  <si>
+    <t>ENSG00000010278</t>
+  </si>
+  <si>
+    <t>CD94</t>
+  </si>
+  <si>
+    <t>A0867</t>
+  </si>
+  <si>
+    <t>anti-human CD94</t>
+  </si>
+  <si>
+    <t>DX22</t>
+  </si>
+  <si>
+    <t>CTTTCCGGTCCTACA</t>
+  </si>
+  <si>
+    <t>ENSG00000134539</t>
+  </si>
+  <si>
+    <t>KLRD1</t>
+  </si>
+  <si>
+    <t>CD99</t>
+  </si>
+  <si>
+    <t>A0845</t>
+  </si>
+  <si>
+    <t>anti-human CD99</t>
+  </si>
+  <si>
+    <t>3B2/TA8</t>
+  </si>
+  <si>
+    <t>ACCCGTCCCTAAGAA</t>
+  </si>
+  <si>
+    <t>ENSG00000002586</t>
+  </si>
+  <si>
+    <t>IntegrinB7</t>
+  </si>
+  <si>
+    <t>A0214</t>
+  </si>
+  <si>
+    <t>anti-human/mouse integrin β7</t>
+  </si>
+  <si>
+    <t>FIB504</t>
+  </si>
+  <si>
+    <t>TCCTTGGATGTACCG</t>
+  </si>
+  <si>
+    <t>ENSG00000139626</t>
+  </si>
+  <si>
+    <t>ITGB7</t>
+  </si>
   <si>
     <t>KLRG1</t>
   </si>
   <si>
-    <t>integrinB7</t>
-  </si>
-  <si>
-    <t>CD99</t>
-  </si>
-  <si>
-    <t>CD94</t>
-  </si>
-  <si>
-    <t>CD9</t>
-  </si>
-  <si>
-    <t>CD8</t>
-  </si>
-  <si>
-    <t>CD71</t>
-  </si>
-  <si>
-    <t>CD7</t>
-  </si>
-  <si>
-    <t>CD62L</t>
-  </si>
-  <si>
-    <t>CD56</t>
-  </si>
-  <si>
-    <t>CD5</t>
-  </si>
-  <si>
-    <t>CD49f</t>
-  </si>
-  <si>
-    <t>CD49a</t>
-  </si>
-  <si>
-    <t>CD49</t>
-  </si>
-  <si>
-    <t>CD48</t>
-  </si>
-  <si>
-    <t>CD45RO</t>
-  </si>
-  <si>
-    <t>CD45RA</t>
-  </si>
-  <si>
-    <t>CD4</t>
-  </si>
-  <si>
-    <t>CD335</t>
-  </si>
-  <si>
-    <t>CD278</t>
-  </si>
-  <si>
-    <t>CD27</t>
-  </si>
-  <si>
-    <t>CD26</t>
-  </si>
-  <si>
-    <t>CD25</t>
-  </si>
-  <si>
-    <t>CD195</t>
-  </si>
-  <si>
-    <t>CD161</t>
-  </si>
-  <si>
-    <t>CD127</t>
-  </si>
-  <si>
-    <t>CD103</t>
-  </si>
-  <si>
-    <t>ADT</t>
-  </si>
-  <si>
-    <t>TCR Vδ2</t>
-  </si>
-  <si>
-    <t>CD172a (SIRPα)</t>
+    <t>A0153</t>
+  </si>
+  <si>
+    <t>anti-human KLRG1 (MAFA)</t>
+  </si>
+  <si>
+    <t>SA231A2</t>
+  </si>
+  <si>
+    <t>CTTATTTCCTGCCCT</t>
+  </si>
+  <si>
+    <t>ENSG00000139187</t>
+  </si>
+  <si>
+    <t>TCRVD2</t>
+  </si>
+  <si>
+    <t>A0582</t>
+  </si>
+  <si>
+    <t>anti-human TCR Vδ2</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>TCAGTCAGATGGTAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +634,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +662,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -168,13 +670,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,167 +1123,685 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3197FC-2C86-BA4F-B263-36E8C0BF785B}">
-  <dimension ref="A1:A30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73645842-31A1-A64F-AA83-F90573C04B99}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
